--- a/upload/partos-2025.xlsx
+++ b/upload/partos-2025.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6BD5439-9F58-42F6-9C09-79818771A1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>unidade</t>
   </si>
@@ -63,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -122,7 +110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -138,7 +126,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -150,7 +138,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -197,23 +185,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -249,23 +220,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,11 +371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +410,7 @@
       <c r="D2" s="3">
         <v>199</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>69</v>
       </c>
     </row>
@@ -473,7 +427,7 @@
       <c r="D3" s="3">
         <v>161</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>48</v>
       </c>
     </row>
@@ -490,7 +444,7 @@
       <c r="D4" s="3">
         <v>124</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>37</v>
       </c>
     </row>
@@ -507,7 +461,7 @@
       <c r="D5" s="3">
         <v>127</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>49</v>
       </c>
     </row>
@@ -524,7 +478,7 @@
       <c r="D6" s="3">
         <v>204</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>77</v>
       </c>
     </row>
@@ -541,7 +495,7 @@
       <c r="D7" s="3">
         <v>195</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>65</v>
       </c>
     </row>
@@ -558,7 +512,7 @@
       <c r="D8" s="3">
         <v>211</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>84</v>
       </c>
     </row>
@@ -575,7 +529,7 @@
       <c r="D9" s="3">
         <v>170</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>78</v>
       </c>
     </row>
@@ -592,25 +546,25 @@
       <c r="D10" s="3">
         <v>176</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>103</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
+        <v>176</v>
+      </c>
+      <c r="E11" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -621,13 +575,13 @@
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>115</v>
-      </c>
-      <c r="E12">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="E12" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -638,13 +592,13 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>113</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -655,13 +609,13 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>118</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
+        <v>113</v>
+      </c>
+      <c r="E14" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -672,13 +626,13 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>106</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
+        <v>118</v>
+      </c>
+      <c r="E15" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -689,13 +643,13 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
         <v>106</v>
       </c>
-      <c r="E16">
-        <v>62</v>
+      <c r="E16" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -706,13 +660,13 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>109</v>
-      </c>
-      <c r="E17">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="E17" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -723,13 +677,13 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>124</v>
-      </c>
-      <c r="E18">
-        <v>62</v>
+        <v>109</v>
+      </c>
+      <c r="E18" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -740,47 +694,47 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>126</v>
-      </c>
-      <c r="E19">
-        <v>60</v>
+        <v>124</v>
+      </c>
+      <c r="E19" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>113</v>
-      </c>
-      <c r="E20">
-        <v>54</v>
+        <v>126</v>
+      </c>
+      <c r="E20" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>110</v>
-      </c>
-      <c r="E21">
-        <v>53</v>
+        <v>106</v>
+      </c>
+      <c r="E21" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -791,13 +745,13 @@
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <v>160</v>
-      </c>
-      <c r="E22">
-        <v>79</v>
+        <v>113</v>
+      </c>
+      <c r="E22" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -808,13 +762,13 @@
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>135</v>
-      </c>
-      <c r="E23">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="E23" s="3">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -825,13 +779,13 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>139</v>
-      </c>
-      <c r="E24">
-        <v>71</v>
+        <v>160</v>
+      </c>
+      <c r="E24" s="3">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -842,13 +796,13 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>127</v>
-      </c>
-      <c r="E25">
-        <v>62</v>
+        <v>135</v>
+      </c>
+      <c r="E25" s="3">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -859,13 +813,13 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>131</v>
-      </c>
-      <c r="E26">
-        <v>69</v>
+        <v>139</v>
+      </c>
+      <c r="E26" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -876,13 +830,13 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>139</v>
-      </c>
-      <c r="E27">
-        <v>67</v>
+        <v>127</v>
+      </c>
+      <c r="E27" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -893,64 +847,64 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3">
-        <v>108</v>
-      </c>
-      <c r="E28">
-        <v>54</v>
+        <v>131</v>
+      </c>
+      <c r="E28" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3">
-        <v>278</v>
-      </c>
-      <c r="E29">
-        <v>104</v>
+        <v>139</v>
+      </c>
+      <c r="E29" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>242</v>
-      </c>
-      <c r="E30">
-        <v>90</v>
+        <v>108</v>
+      </c>
+      <c r="E30" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
-        <v>296</v>
-      </c>
-      <c r="E31">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="E31" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -961,13 +915,13 @@
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>296</v>
-      </c>
-      <c r="E32">
-        <v>113</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="3">
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -978,13 +932,13 @@
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>296</v>
-      </c>
-      <c r="E33">
-        <v>119</v>
+        <v>242</v>
+      </c>
+      <c r="E33" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -995,13 +949,13 @@
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>286</v>
-      </c>
-      <c r="E34">
-        <v>99</v>
+        <v>296</v>
+      </c>
+      <c r="E34" s="3">
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1012,13 +966,13 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>255</v>
-      </c>
-      <c r="E35">
-        <v>92</v>
+        <v>296</v>
+      </c>
+      <c r="E35" s="3">
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1029,13 +983,13 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
-        <v>262</v>
-      </c>
-      <c r="E36">
-        <v>97</v>
+        <v>296</v>
+      </c>
+      <c r="E36" s="3">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1046,249 +1000,84 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>286</v>
+      </c>
+      <c r="E37" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>255</v>
+      </c>
+      <c r="E38" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3">
+        <v>262</v>
+      </c>
+      <c r="E39" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="2">
         <v>9</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D40" s="3">
         <v>248</v>
       </c>
-      <c r="E37">
+      <c r="E40" s="3">
         <v>91</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>266</v>
+      </c>
+      <c r="E41" s="3">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001F758B6196B0F49AC2B800DFBC943B3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4cb996f52a9a15401b375abb1969541e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee1baa49-d775-490f-95a0-0be6b1b30548" xmlns:ns3="0b0293c2-191e-4088-96c9-a881010ce1ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3b9a98b1bf172f667c1109616c689a" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <xsd:import namespace="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee1baa49-d775-490f-95a0-0be6b1b30548" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7af98bd1-2354-4ddb-b15f-75f5f3c88b53" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b0293c2-191e-4088-96c9-a881010ce1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{31baf46e-eed5-4ebd-ba89-72a3afe19d19}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b0293c2-191e-4088-96c9-a881010ce1ad">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee1baa49-d775-490f-95a0-0be6b1b30548">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b0293c2-191e-4088-96c9-a881010ce1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{394B5C55-A7A9-4166-B252-361964CBC6E7}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FABB1847-F610-4020-87B0-5A2DE2EBC7FF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB850A55-95CA-481D-9DFD-199D6448FC5D}"/>
 </file>
--- a/upload/partos-2025.xlsx
+++ b/upload/partos-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
   <si>
     <t>unidade</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,19 +569,19 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E12" s="3">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -592,13 +592,13 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -609,13 +609,13 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E14" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -626,13 +626,13 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -643,13 +643,13 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E16" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -660,13 +660,13 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>106</v>
       </c>
       <c r="E17" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -677,13 +677,13 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -694,13 +694,13 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -711,13 +711,13 @@
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -728,47 +728,47 @@
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E21" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E22" s="3">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E23" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -779,13 +779,13 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="E24" s="3">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -796,13 +796,13 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -813,13 +813,13 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="E26" s="3">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -830,13 +830,13 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E27" s="3">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -847,13 +847,13 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E28" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -864,13 +864,13 @@
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E29" s="3">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -881,13 +881,13 @@
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E30" s="3">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -898,64 +898,64 @@
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E31" s="3">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>278</v>
+        <v>108</v>
       </c>
       <c r="E32" s="3">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="E34" s="3">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -966,13 +966,13 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E35" s="3">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -983,13 +983,13 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="E36" s="3">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E37" s="3">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="E38" s="3">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1034,13 +1034,13 @@
         <v>2025</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="E39" s="3">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1051,13 +1051,13 @@
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="E40" s="3">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1068,13 +1068,81 @@
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E41" s="3">
         <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3">
+        <v>262</v>
+      </c>
+      <c r="E42" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3">
+        <v>248</v>
+      </c>
+      <c r="E43" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3">
+        <v>266</v>
+      </c>
+      <c r="E44" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C45" s="2">
+        <v>11</v>
+      </c>
+      <c r="D45" s="3">
+        <v>246</v>
+      </c>
+      <c r="E45" s="3">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
